--- a/샘플/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
+++ b/샘플/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="저자정보테이블" sheetId="10" r:id="rId3"/>
     <sheet name="회원정보테이블" sheetId="11" r:id="rId4"/>
     <sheet name="대여정보테이블" sheetId="12" r:id="rId5"/>
+    <sheet name="개인과제 샘플" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="167">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,6 +644,58 @@
   </si>
   <si>
     <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너와나의연결고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조도성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국경영원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2092,20 +2148,20 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>44356</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2117,18 +2173,18 @@
       <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2137,18 +2193,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3183,20 +3239,20 @@
       <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>44356</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3208,18 +3264,18 @@
       <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -3228,18 +3284,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4250,20 +4306,20 @@
       <c r="C2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>44356</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4275,18 +4331,18 @@
       <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -4295,18 +4351,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4650,7 +4706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -5309,20 +5365,20 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>44319</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -5334,18 +5390,18 @@
       <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -5354,18 +5410,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6370,20 +6426,20 @@
       <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>44319</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -6395,18 +6451,18 @@
       <c r="C3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -6415,18 +6471,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6788,4 +6844,78 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="30">
+        <v>44715</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>